--- a/TestResults/AffilTypePost.xlsx
+++ b/TestResults/AffilTypePost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -50,91 +50,72 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>Validate that the Affiliation Type service is successfully created when valid values are passed for all attributes in JSON Request.</t>
+    <t>Verify that the GeoplAffilType service is successfully created when valid values are passed for all attributes in JSON Request.</t>
   </si>
   <si>
     <t>Post</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3791813"
 	},
 	"geopoliticalAffiliationType":
 	{
-		"affilTypeCode":"Test1234",
-		"affilTypeName":"Test_Data160"
+		"affilTypeCode":"AffilTest",
+		"affilTypeName":"AffilSpecCharTest"
 	}
 }</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>
-{
-	"errorMessages":
-	{
-		"e":"Record already exists."
-	},
-	"errorSummary":"Duplicate Entry Found",
-	"timestamp":"15-07-2019 05:17:05"
-}</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Validate that the  Affiliation Type service is not created when the  Affiliation Type Code is empty in JSON Request.</t>
-  </si>
-  <si>
-    <t>
+    <t xml:space="preserve">Input_UserName: 3791813
+Response_AffiliationTypeId: 5899303723994989864
+Input_affilTypeCode: AffilTest
+Input_affilTypeName: AffilSpecCharTest
+Input_LastUpdateUserName: 3791813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: 3791813
+DB_AffiliationTypeId: 5899303723994989864
+DB_affilTypeCode: AffilTest
+DB_affilTypeName: AffilSpecCharTest
+DB_LastUpdateUserName: 3791813
+</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3791813",
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"GeoplAffilType Details successfully saved with affilTypeId :5899303723994989864",
+			"data":null
+		}
 	},
-	"geopoliticalAffiliationType":
+	"data":
 	{
-		"affilTypeCode":"",
-		"affilTypeName":"Test_Data160"
+		"affilTypeId":5899303723994989864
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_affilTypeCode: 
-Input_affilTypeName: Test_Data160
-</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request</t>
-  </si>
-  <si>
-    <t>
-{
-	"errorMessages":
-	{
-		"e":"affilTypeCode cannot be a null field!,
-		 "
-	},
-	"errorSummary":"Validation Failed",
-	"timestamp":"15-07-2019 05:17:08"
-}</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -142,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -155,61 +136,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -333,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -369,39 +295,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -416,17 +309,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -481,56 +374,24 @@
         <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>17</v>
+      </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="K2" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="12">
+        <v>21</v>
+      </c>
       <c r="L2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="18">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s" s="19">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="21">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s" s="22">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestResults/AffilTypePost.xlsx
+++ b/TestResults/AffilTypePost.xlsx
@@ -47,10 +47,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Verify that the GeoplAffilType service is successfully created when valid values are passed for all attributes in JSON Request.</t>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
   </si>
   <si>
     <t>Post</t>
@@ -64,51 +64,51 @@
 	},
 	"geopoliticalAffiliationType":
 	{
-		"affilTypeCode":"AffilTest",
-		"affilTypeName":"AffilSpecCharTest"
+		"affiliationTypeCode":"aaa",
+		"affiliationTypeName":"Affilcodttt"
 	}
 }</t>
   </si>
   <si>
     <t xml:space="preserve">Input_UserName: 3791813
-Response_AffiliationTypeId: 5899303723994989864
-Input_affilTypeCode: AffilTest
-Input_affilTypeName: AffilSpecCharTest
-Input_LastUpdateUserName: 3791813
+Input_affiliationTypeCode: aaa
+Input_affiliationTypeName: Affilcodttt
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_UserName: 3791813
-DB_AffiliationTypeId: 5899303723994989864
-DB_affilTypeCode: AffilTest
-DB_affilTypeName: AffilSpecCharTest
-DB_LastUpdateUserName: 3791813
-</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
   </si>
   <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3791813",
 		"version":"1.0.0",
+		"timeStamp":"2020-06-22T09:32:53.175+0000",
+		"statusCode":"401",
 		"message":
 		{
-			"status":"SUCCESS",
-			"internalMessage":"GeoplAffilType Details successfully saved with affilTypeId :5899303723994989864",
-			"data":null
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
 		}
 	},
-	"data":
-	{
-		"affilTypeId":5899303723994989864
-	}
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
 }</t>
   </si>
   <si>
